--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N2">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O2">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P2">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q2">
-        <v>577.5800827617334</v>
+        <v>812.8632527064933</v>
       </c>
       <c r="R2">
-        <v>5198.2207448556</v>
+        <v>7315.76927435844</v>
       </c>
       <c r="S2">
-        <v>0.02072655216474242</v>
+        <v>0.02527234944811022</v>
       </c>
       <c r="T2">
-        <v>0.02072655216474242</v>
+        <v>0.02527234944811022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>93.234415</v>
       </c>
       <c r="O3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q3">
-        <v>1603.370156481439</v>
+        <v>1699.807225433586</v>
       </c>
       <c r="R3">
-        <v>14430.33140833295</v>
+        <v>15298.26502890227</v>
       </c>
       <c r="S3">
-        <v>0.05753719039064051</v>
+        <v>0.05284790775391523</v>
       </c>
       <c r="T3">
-        <v>0.05753719039064052</v>
+        <v>0.05284790775391524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N4">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q4">
-        <v>455.150605766939</v>
+        <v>990.0758539761989</v>
       </c>
       <c r="R4">
-        <v>4096.355451902451</v>
+        <v>8910.68268578579</v>
       </c>
       <c r="S4">
-        <v>0.01633315111583274</v>
+        <v>0.03078198316692433</v>
       </c>
       <c r="T4">
-        <v>0.01633315111583274</v>
+        <v>0.03078198316692434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N5">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O5">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P5">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q5">
-        <v>4724.186091478554</v>
+        <v>5474.020573175435</v>
       </c>
       <c r="R5">
-        <v>42517.67482330699</v>
+        <v>49266.18515857892</v>
       </c>
       <c r="S5">
-        <v>0.1695281613465431</v>
+        <v>0.170190201550895</v>
       </c>
       <c r="T5">
-        <v>0.1695281613465431</v>
+        <v>0.170190201550895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N6">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O6">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P6">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q6">
-        <v>216.3049486434666</v>
+        <v>287.1480440246934</v>
       </c>
       <c r="R6">
-        <v>1946.7445377912</v>
+        <v>2584.33239622224</v>
       </c>
       <c r="S6">
-        <v>0.007762137122377539</v>
+        <v>0.008927584913908876</v>
       </c>
       <c r="T6">
-        <v>0.00776213712237754</v>
+        <v>0.008927584913908878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>93.234415</v>
       </c>
       <c r="O7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q7">
-        <v>600.4654760528776</v>
+        <v>600.4654760528779</v>
       </c>
       <c r="R7">
-        <v>5404.1892844759</v>
+        <v>5404.189284475901</v>
       </c>
       <c r="S7">
-        <v>0.02154779810451148</v>
+        <v>0.01866878997396823</v>
       </c>
       <c r="T7">
-        <v>0.02154779810451148</v>
+        <v>0.01866878997396823</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N8">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q8">
-        <v>170.4548535238778</v>
+        <v>349.7492892669823</v>
       </c>
       <c r="R8">
-        <v>1534.0936817149</v>
+        <v>3147.743603402841</v>
       </c>
       <c r="S8">
-        <v>0.006116799243497478</v>
+        <v>0.01087389081515648</v>
       </c>
       <c r="T8">
-        <v>0.006116799243497478</v>
+        <v>0.01087389081515648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N9">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O9">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P9">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q9">
-        <v>1769.217568953107</v>
+        <v>1933.725377921369</v>
       </c>
       <c r="R9">
-        <v>15922.95812057796</v>
+        <v>17403.52840129232</v>
       </c>
       <c r="S9">
-        <v>0.06348865088689799</v>
+        <v>0.06012054712129251</v>
       </c>
       <c r="T9">
-        <v>0.06348865088689799</v>
+        <v>0.06012054712129251</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N10">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O10">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P10">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q10">
-        <v>134.8457142046</v>
+        <v>163.832821310864</v>
       </c>
       <c r="R10">
-        <v>1213.6114278414</v>
+        <v>1474.495391797776</v>
       </c>
       <c r="S10">
-        <v>0.004838959675149589</v>
+        <v>0.005093649266899477</v>
       </c>
       <c r="T10">
-        <v>0.00483895967514959</v>
+        <v>0.005093649266899477</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>93.234415</v>
       </c>
       <c r="O11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q11">
-        <v>374.3335345832417</v>
+        <v>342.5966329516567</v>
       </c>
       <c r="R11">
-        <v>3369.001811249175</v>
+        <v>3083.36969656491</v>
       </c>
       <c r="S11">
-        <v>0.01343301779807495</v>
+        <v>0.01065151093849055</v>
       </c>
       <c r="T11">
-        <v>0.01343301779807496</v>
+        <v>0.01065151093849055</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N12">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q12">
-        <v>106.2625085889917</v>
+        <v>199.5500718338573</v>
       </c>
       <c r="R12">
-        <v>956.3625773009252</v>
+        <v>1795.950646504716</v>
       </c>
       <c r="S12">
-        <v>0.00381324684344196</v>
+        <v>0.006204117520369307</v>
       </c>
       <c r="T12">
-        <v>0.00381324684344196</v>
+        <v>0.006204117520369308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N13">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O13">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P13">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q13">
-        <v>1102.94012302993</v>
+        <v>1103.290413770085</v>
       </c>
       <c r="R13">
-        <v>9926.461107269371</v>
+        <v>9929.613723930766</v>
       </c>
       <c r="S13">
-        <v>0.03957917988664036</v>
+        <v>0.03430188384910978</v>
       </c>
       <c r="T13">
-        <v>0.03957917988664036</v>
+        <v>0.03430188384910978</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N14">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O14">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P14">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q14">
-        <v>1258.036741188826</v>
+        <v>1648.679227681325</v>
       </c>
       <c r="R14">
-        <v>11322.33067069944</v>
+        <v>14838.11304913193</v>
       </c>
       <c r="S14">
-        <v>0.04514484643711179</v>
+        <v>0.05125831119942086</v>
       </c>
       <c r="T14">
-        <v>0.0451448464371118</v>
+        <v>0.05125831119942087</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>93.234415</v>
       </c>
       <c r="O15">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P15">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q15">
-        <v>3492.327084643314</v>
+        <v>3447.611703818622</v>
       </c>
       <c r="R15">
-        <v>31430.94376178983</v>
+        <v>31028.5053343676</v>
       </c>
       <c r="S15">
-        <v>0.1253227070263479</v>
+        <v>0.1071880755467726</v>
       </c>
       <c r="T15">
-        <v>0.1253227070263479</v>
+        <v>0.1071880755467726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N16">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O16">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P16">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q16">
-        <v>991.3710702960145</v>
+        <v>2008.108361208944</v>
       </c>
       <c r="R16">
-        <v>8922.33963266413</v>
+        <v>18072.9752508805</v>
       </c>
       <c r="S16">
-        <v>0.03557550687145721</v>
+        <v>0.06243315350419576</v>
       </c>
       <c r="T16">
-        <v>0.03557550687145721</v>
+        <v>0.06243315350419577</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N17">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O17">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P17">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q17">
-        <v>10289.82794364289</v>
+        <v>11102.61040937134</v>
       </c>
       <c r="R17">
-        <v>92608.45149278606</v>
+        <v>99923.49368434209</v>
       </c>
       <c r="S17">
-        <v>0.369252095086733</v>
+        <v>0.3451860434305707</v>
       </c>
       <c r="T17">
-        <v>0.3692520950867331</v>
+        <v>0.3451860434305707</v>
       </c>
     </row>
   </sheetData>
